--- a/ExcelExport/Reports/SQLReport.xlsx
+++ b/ExcelExport/Reports/SQLReport.xlsx
@@ -53,13 +53,13 @@
     <t xml:space="preserve">2231</t>
   </si>
   <si>
-    <t xml:space="preserve">3043</t>
+    <t xml:space="preserve">3044</t>
   </si>
   <si>
     <t xml:space="preserve">715</t>
   </si>
   <si>
-    <t xml:space="preserve">6017</t>
+    <t xml:space="preserve">6018</t>
   </si>
   <si>
     <t xml:space="preserve">COM</t>
@@ -89,13 +89,13 @@
     <t xml:space="preserve">273</t>
   </si>
   <si>
-    <t xml:space="preserve">7638</t>
+    <t xml:space="preserve">7639</t>
   </si>
   <si>
     <t xml:space="preserve">4487</t>
   </si>
   <si>
-    <t xml:space="preserve">12401</t>
+    <t xml:space="preserve">12402</t>
   </si>
   <si>
     <t xml:space="preserve">CSPS</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">342</t>
+    <t xml:space="preserve">344</t>
   </si>
   <si>
     <t xml:space="preserve">121</t>
   </si>
   <si>
-    <t xml:space="preserve">470</t>
+    <t xml:space="preserve">472</t>
   </si>
   <si>
     <t xml:space="preserve">FIN</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">351</t>
   </si>
   <si>
-    <t xml:space="preserve">5163</t>
+    <t xml:space="preserve">5181</t>
   </si>
   <si>
     <t xml:space="preserve">1185</t>
   </si>
   <si>
-    <t xml:space="preserve">6700</t>
+    <t xml:space="preserve">6718</t>
   </si>
   <si>
     <t xml:space="preserve">INS</t>
@@ -170,13 +170,13 @@
     <t xml:space="preserve">152</t>
   </si>
   <si>
-    <t xml:space="preserve">594</t>
+    <t xml:space="preserve">595</t>
   </si>
   <si>
     <t xml:space="preserve">75</t>
   </si>
   <si>
-    <t xml:space="preserve">821</t>
+    <t xml:space="preserve">822</t>
   </si>
   <si>
     <t xml:space="preserve">MAN</t>
@@ -185,145 +185,145 @@
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">888</t>
+    <t xml:space="preserve">890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCAQS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRTCAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
   </si>
   <si>
     <t xml:space="preserve">1930</t>
   </si>
   <si>
-    <t xml:space="preserve">412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCAQS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRTCAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16872</t>
+    <t xml:space="preserve">16873</t>
   </si>
   <si>
     <t xml:space="preserve">3455</t>
@@ -365,13 +365,13 @@
     <t xml:space="preserve">Grand Total</t>
   </si>
   <si>
-    <t xml:space="preserve">3084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195940</t>
+    <t xml:space="preserve">3085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196080</t>
   </si>
   <si>
     <t xml:space="preserve">572</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">71238</t>
   </si>
   <si>
-    <t xml:space="preserve">302048</t>
+    <t xml:space="preserve">302193</t>
   </si>
 </sst>
 </file>
